--- a/gettingStartedWithGitCommands.xlsx
+++ b/gettingStartedWithGitCommands.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>git config --global user.name "Lance Bookatz"</t>
   </si>
@@ -103,18 +102,39 @@
   </si>
   <si>
     <t>git add README.MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git add . </t>
+  </si>
+  <si>
+    <t>git commit -m "FirstCommit"</t>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/lancebookatz/Training.git</t>
+  </si>
+  <si>
+    <t>git config --global http.sslVerify false</t>
+  </si>
+  <si>
+    <t>solved this issue: fatal: unable to access 'https://github.com/lancebookatz/Training.git/': SSL certificate problem: self signed certificate in certificate chain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF232629"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,8 +157,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C39"/>
+  <dimension ref="B3:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -466,100 +487,124 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>5</v>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>